--- a/Table/SoundTable.xlsx
+++ b/Table/SoundTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,19 +35,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>IsLoop-bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SoundType-int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsLoop-bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로비 브금</t>
+  </si>
+  <si>
+    <t>SoundType-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입 없음, 에러타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 관련 사운드 [공격, 대사 등등]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 사운드 [클릭, 상호작용 등등]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -431,10 +470,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -442,13 +481,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>0</v>
@@ -463,14 +502,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
